--- a/src/predicciones/xgboost/producto_179.xlsx
+++ b/src/predicciones/xgboost/producto_179.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>valor_real</t>
   </si>
   <si>
     <t>valor_prediccion</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,2489 +386,3419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:C310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44930</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>2.539448976516724</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>44931</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>2.975607872009277</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>4</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44932</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>3.731162309646606</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44936</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>2.68904447555542</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>4</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44939</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>2.557401180267334</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>4</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44940</v>
       </c>
       <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>0.8996334671974182</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>2</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44941</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>2.041229963302612</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>2</v>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44942</v>
       </c>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>2.794442415237427</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>3</v>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44943</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>2.441615104675293</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>2</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44945</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>1.903677105903625</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>2</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44946</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>2.128605842590332</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>3</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44947</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>2.765876770019531</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>4</v>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44948</v>
       </c>
       <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
         <v>2.699151992797852</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>2</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44949</v>
       </c>
       <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
         <v>1.80338990688324</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44951</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>2.80430269241333</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>3</v>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44952</v>
       </c>
       <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>2.622533321380615</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1</v>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44955</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>2.414466142654419</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>2</v>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44958</v>
       </c>
       <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
         <v>2.621950149536133</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>3</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44959</v>
       </c>
       <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>2.225882530212402</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>3</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44960</v>
       </c>
       <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>1.384196758270264</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>2</v>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44961</v>
       </c>
       <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
         <v>3.030695199966431</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>3</v>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44962</v>
       </c>
       <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
         <v>2.965277671813965</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>4</v>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>44963</v>
       </c>
       <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
         <v>2.641928911209106</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>3</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>44964</v>
       </c>
       <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>0.7056217789649963</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>2</v>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>44965</v>
       </c>
       <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
         <v>2.39461350440979</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1</v>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>44967</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>2.707945108413696</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>2</v>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>44968</v>
       </c>
       <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
         <v>2.462129592895508</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>4</v>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>44969</v>
       </c>
       <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
         <v>2.176353931427002</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>4</v>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>44970</v>
       </c>
       <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
         <v>1.795525908470154</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>2</v>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>44971</v>
       </c>
       <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
         <v>2.635189771652222</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>1</v>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>44972</v>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>1.381462931632996</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>3</v>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>44973</v>
       </c>
       <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
         <v>1.999737501144409</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>2</v>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>44974</v>
       </c>
       <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
         <v>1.361838459968567</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>2</v>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>44975</v>
       </c>
       <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
         <v>1.831598520278931</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1</v>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>44976</v>
       </c>
       <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
         <v>2.23435115814209</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1</v>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>44977</v>
       </c>
       <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
         <v>2.321283578872681</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>2</v>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>44978</v>
       </c>
       <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
         <v>2.688119649887085</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>2</v>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>44979</v>
       </c>
       <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
         <v>2.58091402053833</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>4</v>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>44980</v>
       </c>
       <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
         <v>2.732281684875488</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>2</v>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>44981</v>
       </c>
       <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
         <v>2.537010192871094</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>2</v>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>44982</v>
       </c>
       <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
         <v>2.373600959777832</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>1</v>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>44983</v>
       </c>
       <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>3.437744140625</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>2</v>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>44987</v>
       </c>
       <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
         <v>1.943933248519897</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>3</v>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>44988</v>
       </c>
       <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
         <v>2.970913648605347</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>3</v>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>44989</v>
       </c>
       <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
         <v>2.993860721588135</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1</v>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>44990</v>
       </c>
       <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
         <v>2.820472717285156</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>1</v>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>44992</v>
       </c>
       <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>1.761718392372131</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>2</v>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>44993</v>
       </c>
       <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
         <v>1.772705912590027</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>1</v>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>44994</v>
       </c>
       <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>1.60662305355072</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>3</v>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>44995</v>
       </c>
       <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
         <v>2.064925909042358</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>3</v>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>44996</v>
       </c>
       <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
         <v>2.331570386886597</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>1</v>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>44997</v>
       </c>
       <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
         <v>2.368011474609375</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>2</v>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>44998</v>
       </c>
       <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
         <v>1.316493630409241</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>1</v>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>44999</v>
       </c>
       <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
         <v>2.432051658630371</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>3</v>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45000</v>
       </c>
       <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
         <v>2.203716516494751</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>4</v>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45001</v>
       </c>
       <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
         <v>3.355843544006348</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>3</v>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45003</v>
       </c>
       <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
         <v>2.555148839950562</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>4</v>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45004</v>
       </c>
       <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
         <v>3.296409368515015</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>2</v>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45005</v>
       </c>
       <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
         <v>1.852701783180237</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>2</v>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45006</v>
       </c>
       <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
         <v>1.300392866134644</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>1</v>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45007</v>
       </c>
       <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
         <v>2.732313394546509</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>1</v>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45008</v>
       </c>
       <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
         <v>2.307969570159912</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>4</v>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45009</v>
       </c>
       <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
         <v>3.086239337921143</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>4</v>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45010</v>
       </c>
       <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
         <v>2.134282112121582</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>2</v>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45011</v>
       </c>
       <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
         <v>2.639097452163696</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>3</v>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45012</v>
       </c>
       <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
         <v>2.784772872924805</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>1</v>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45014</v>
       </c>
       <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
         <v>2.306024551391602</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>3</v>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45015</v>
       </c>
       <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
         <v>2.158106803894043</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>2</v>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45018</v>
       </c>
       <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
         <v>2.278415203094482</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>1</v>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45019</v>
       </c>
       <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
         <v>2.110164642333984</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>1</v>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45021</v>
       </c>
       <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
         <v>1.90112042427063</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>3</v>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45022</v>
       </c>
       <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
         <v>2.11435866355896</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>1</v>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45026</v>
       </c>
       <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
         <v>1.991882801055908</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>2</v>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45027</v>
       </c>
       <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
         <v>2.454757452011108</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>1</v>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45028</v>
       </c>
       <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
         <v>2.350194454193115</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>3</v>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45029</v>
       </c>
       <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
         <v>1.834893345832825</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>2</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45030</v>
       </c>
       <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
         <v>2.31005597114563</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>2</v>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45031</v>
       </c>
       <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
         <v>2.482469320297241</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>1</v>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45033</v>
       </c>
       <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
         <v>1.784620523452759</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>1</v>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45034</v>
       </c>
       <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
         <v>2.226641654968262</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <v>1</v>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45036</v>
       </c>
       <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
         <v>1.63503885269165</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>1</v>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45037</v>
       </c>
       <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
         <v>1.291157364845276</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <v>2</v>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45038</v>
       </c>
       <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
         <v>1.854529857635498</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <v>2</v>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45039</v>
       </c>
       <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
         <v>1.89516294002533</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
-        <v>2</v>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45040</v>
       </c>
       <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
         <v>2.558764219284058</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>2</v>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45041</v>
       </c>
       <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
         <v>2.99909520149231</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
-        <v>4</v>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45042</v>
       </c>
       <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88">
         <v>3.224803447723389</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <v>2</v>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45043</v>
       </c>
       <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
         <v>1.632360696792603</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <v>1</v>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45044</v>
       </c>
       <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
         <v>2.441638708114624</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <v>2</v>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45045</v>
       </c>
       <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
         <v>2.222788333892822</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <v>2</v>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45048</v>
       </c>
       <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
         <v>1.694818019866943</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>4</v>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45049</v>
       </c>
       <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
         <v>3.05671763420105</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <v>2</v>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45051</v>
       </c>
       <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
         <v>1.695099830627441</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <v>1</v>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45052</v>
       </c>
       <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
         <v>2.637073993682861</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <v>3</v>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45053</v>
       </c>
       <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
         <v>2.27113676071167</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <v>3</v>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45054</v>
       </c>
       <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
         <v>2.818949222564697</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
-        <v>3</v>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45058</v>
       </c>
       <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
         <v>3.073174953460693</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <v>3</v>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45059</v>
       </c>
       <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99">
         <v>2.793036222457886</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
-        <v>4</v>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45060</v>
       </c>
       <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100">
         <v>2.277281045913696</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
-        <v>1</v>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45061</v>
       </c>
       <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
         <v>2.46772289276123</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
-        <v>2</v>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45064</v>
       </c>
       <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
         <v>3.44990873336792</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
-        <v>2</v>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45065</v>
       </c>
       <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
         <v>2.992362260818481</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104">
-        <v>4</v>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45066</v>
       </c>
       <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
         <v>2.904395341873169</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105">
-        <v>3</v>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45068</v>
       </c>
       <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
         <v>1.756457209587097</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106">
-        <v>2</v>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45069</v>
       </c>
       <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
         <v>2.518608808517456</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
-        <v>3</v>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45072</v>
       </c>
       <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
         <v>3.230222940444946</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108">
-        <v>1</v>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45073</v>
       </c>
       <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
         <v>2.306704044342041</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
-        <v>1</v>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45074</v>
       </c>
       <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
         <v>1.777398109436035</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110">
-        <v>3</v>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45075</v>
       </c>
       <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110">
         <v>2.41049861907959</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111">
-        <v>1</v>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45076</v>
       </c>
       <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
         <v>2.629029512405396</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
-        <v>4</v>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45078</v>
       </c>
       <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
         <v>2.435025691986084</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113">
-        <v>3</v>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45079</v>
       </c>
       <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
         <v>2.253968477249146</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114">
-        <v>4</v>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45080</v>
       </c>
       <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114">
         <v>2.429215431213379</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115">
-        <v>2</v>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45081</v>
       </c>
       <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
         <v>3.211007118225098</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
-        <v>2</v>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45083</v>
       </c>
       <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
         <v>2.095068693161011</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117">
-        <v>2</v>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45084</v>
       </c>
       <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
         <v>2.319107532501221</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118">
-        <v>3</v>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45085</v>
       </c>
       <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
         <v>1.992922067642212</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119">
-        <v>2</v>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45086</v>
       </c>
       <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
         <v>2.126062154769897</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120">
-        <v>3</v>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45087</v>
       </c>
       <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
         <v>1.462363123893738</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121">
-        <v>1</v>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45089</v>
       </c>
       <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
         <v>2.394514083862305</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122">
-        <v>1</v>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45090</v>
       </c>
       <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
         <v>2.489982128143311</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123">
-        <v>4</v>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45092</v>
       </c>
       <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
         <v>2.735869884490967</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124">
-        <v>2</v>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45093</v>
       </c>
       <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
         <v>1.14251434803009</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125">
-        <v>1</v>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45094</v>
       </c>
       <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
         <v>0.8016604781150818</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126">
-        <v>3</v>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45095</v>
       </c>
       <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
         <v>1.5548415184021</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127">
-        <v>1</v>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45096</v>
       </c>
       <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
         <v>2.876077890396118</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128">
-        <v>1</v>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45097</v>
       </c>
       <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
         <v>2.234233856201172</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129">
-        <v>1</v>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45099</v>
       </c>
       <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
         <v>2.156598329544067</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
-        <v>3</v>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45100</v>
       </c>
       <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
         <v>2.145977258682251</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131">
-        <v>2</v>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45101</v>
       </c>
       <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
         <v>1.929185390472412</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132">
-        <v>2</v>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45102</v>
       </c>
       <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
         <v>2.005336999893188</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133">
-        <v>2</v>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45104</v>
       </c>
       <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
         <v>1.845233798027039</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134">
-        <v>2</v>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45105</v>
       </c>
       <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
         <v>2.548195838928223</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135">
-        <v>3</v>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45106</v>
       </c>
       <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135">
         <v>3.100371599197388</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136">
-        <v>1</v>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45108</v>
       </c>
       <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
         <v>2.72485613822937</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137">
-        <v>4</v>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45109</v>
       </c>
       <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137">
         <v>3.072461605072021</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138">
-        <v>3</v>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45112</v>
       </c>
       <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
         <v>2.793833494186401</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139">
-        <v>2</v>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45113</v>
       </c>
       <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
         <v>3.079452753067017</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140">
-        <v>4</v>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45114</v>
       </c>
       <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140">
         <v>3.029738664627075</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141">
-        <v>1</v>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45115</v>
       </c>
       <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
         <v>2.981059074401855</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142">
-        <v>3</v>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45116</v>
       </c>
       <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142">
         <v>2.952389240264893</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143">
-        <v>3</v>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45120</v>
       </c>
       <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143">
         <v>3.479720592498779</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144">
-        <v>2</v>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45121</v>
       </c>
       <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
         <v>2.742531776428223</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145">
-        <v>3</v>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45122</v>
       </c>
       <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145">
         <v>2.638388395309448</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146">
-        <v>1</v>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45124</v>
       </c>
       <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
         <v>1.683018684387207</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147">
-        <v>1</v>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45125</v>
       </c>
       <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
         <v>2.477081298828125</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148">
-        <v>3</v>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45126</v>
       </c>
       <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
         <v>2.530389547348022</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149">
-        <v>1</v>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45127</v>
       </c>
       <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
         <v>2.544453382492065</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150">
-        <v>3</v>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45128</v>
       </c>
       <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150">
         <v>3.655710220336914</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151">
-        <v>4</v>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45129</v>
       </c>
       <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151">
         <v>1.654535889625549</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152">
-        <v>4</v>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45130</v>
       </c>
       <c r="B152">
+        <v>4</v>
+      </c>
+      <c r="C152">
         <v>1.243447661399841</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153">
-        <v>4</v>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45131</v>
       </c>
       <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153">
         <v>2.652774095535278</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154">
-        <v>3</v>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45132</v>
       </c>
       <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154">
         <v>2.511467218399048</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155">
-        <v>4</v>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45133</v>
       </c>
       <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155">
         <v>2.549124717712402</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156">
-        <v>1</v>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45134</v>
       </c>
       <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
         <v>2.334195375442505</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157">
-        <v>2</v>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45135</v>
       </c>
       <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
         <v>1.894144177436829</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158">
-        <v>4</v>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45136</v>
       </c>
       <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158">
         <v>2.204692840576172</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159">
-        <v>2</v>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45139</v>
       </c>
       <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
         <v>1.766937255859375</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160">
-        <v>2</v>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45140</v>
       </c>
       <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
         <v>2.984441041946411</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161">
-        <v>2</v>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45141</v>
       </c>
       <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161">
         <v>1.423377513885498</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162">
-        <v>2</v>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45142</v>
       </c>
       <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
         <v>1.823640704154968</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163">
-        <v>3</v>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>45143</v>
       </c>
       <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163">
         <v>1.675469279289246</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164">
-        <v>1</v>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>45144</v>
       </c>
       <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
         <v>1.330318212509155</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165">
-        <v>3</v>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>45145</v>
       </c>
       <c r="B165">
+        <v>3</v>
+      </c>
+      <c r="C165">
         <v>2.0291907787323</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166">
-        <v>2</v>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>45146</v>
       </c>
       <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
         <v>2.515424966812134</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167">
-        <v>2</v>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>45147</v>
       </c>
       <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
         <v>2.424112319946289</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168">
-        <v>4</v>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>45148</v>
       </c>
       <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="C168">
         <v>1.861589431762695</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169">
-        <v>2</v>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>45149</v>
       </c>
       <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
         <v>1.645135402679443</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170">
-        <v>1</v>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>45150</v>
       </c>
       <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
         <v>3.129797220230103</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171">
-        <v>2</v>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45154</v>
       </c>
       <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
         <v>3.481709957122803</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172">
-        <v>3</v>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>45155</v>
       </c>
       <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
         <v>2.798448324203491</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173">
-        <v>4</v>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>45156</v>
       </c>
       <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173">
         <v>3.485887289047241</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174">
-        <v>2</v>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>45157</v>
       </c>
       <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174">
         <v>2.101777315139771</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175">
-        <v>3</v>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>45158</v>
       </c>
       <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175">
         <v>3.010394811630249</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176">
-        <v>4</v>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>45159</v>
       </c>
       <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176">
         <v>2.89225959777832</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177">
-        <v>2</v>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45161</v>
       </c>
       <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177">
         <v>2.648048877716064</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178">
-        <v>4</v>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>45162</v>
       </c>
       <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="C178">
         <v>3.697826623916626</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179">
-        <v>3</v>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>45164</v>
       </c>
       <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179">
         <v>2.59496545791626</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180">
-        <v>4</v>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>45166</v>
       </c>
       <c r="B180">
+        <v>4</v>
+      </c>
+      <c r="C180">
         <v>3.072461128234863</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181">
-        <v>3</v>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>45167</v>
       </c>
       <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181">
         <v>2.31593656539917</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182">
-        <v>4</v>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>45168</v>
       </c>
       <c r="B182">
+        <v>4</v>
+      </c>
+      <c r="C182">
         <v>3.06421685218811</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183">
-        <v>1</v>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>45170</v>
       </c>
       <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
         <v>2.403002262115479</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184">
-        <v>3</v>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>45171</v>
       </c>
       <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184">
         <v>2.811766862869263</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185">
-        <v>1</v>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>45173</v>
       </c>
       <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
         <v>1.435984492301941</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186">
-        <v>1</v>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>45175</v>
       </c>
       <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
         <v>1.66721773147583</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187">
-        <v>2</v>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>45176</v>
       </c>
       <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
         <v>2.079605579376221</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188">
-        <v>2</v>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>45178</v>
       </c>
       <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188">
         <v>1.593657374382019</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189">
-        <v>3</v>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>45179</v>
       </c>
       <c r="B189">
+        <v>3</v>
+      </c>
+      <c r="C189">
         <v>2.28788948059082</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190">
-        <v>3</v>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>45180</v>
       </c>
       <c r="B190">
+        <v>3</v>
+      </c>
+      <c r="C190">
         <v>3.279783725738525</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191">
-        <v>2</v>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>45181</v>
       </c>
       <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191">
         <v>2.919755697250366</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192">
-        <v>2</v>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>45182</v>
       </c>
       <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192">
         <v>3.075813055038452</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193">
-        <v>4</v>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>45184</v>
       </c>
       <c r="B193">
+        <v>4</v>
+      </c>
+      <c r="C193">
         <v>2.313951730728149</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194">
-        <v>3</v>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45185</v>
       </c>
       <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194">
         <v>1.574712991714478</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195">
-        <v>3</v>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45186</v>
       </c>
       <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195">
         <v>1.467546939849854</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196">
-        <v>3</v>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45189</v>
       </c>
       <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
         <v>2.455913066864014</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197">
-        <v>1</v>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45190</v>
       </c>
       <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
         <v>1.792415618896484</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198">
-        <v>1</v>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45191</v>
       </c>
       <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
         <v>1.747172713279724</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199">
-        <v>2</v>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45194</v>
       </c>
       <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199">
         <v>2.748651504516602</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200">
-        <v>1</v>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>45195</v>
       </c>
       <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
         <v>1.597048997879028</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201">
-        <v>2</v>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>45196</v>
       </c>
       <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
         <v>2.502830266952515</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202">
-        <v>2</v>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>45197</v>
       </c>
       <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202">
         <v>2.798049688339233</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203">
-        <v>3</v>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>45198</v>
       </c>
       <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203">
         <v>1.946405053138733</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204">
-        <v>4</v>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>45201</v>
       </c>
       <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="C204">
         <v>1.417434334754944</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205">
-        <v>3</v>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>45202</v>
       </c>
       <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205">
         <v>1.569481134414673</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206">
-        <v>1</v>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>45203</v>
       </c>
       <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
         <v>1.704543948173523</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207">
-        <v>1</v>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>45205</v>
       </c>
       <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
         <v>1.758456826210022</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208">
-        <v>2</v>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>45206</v>
       </c>
       <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208">
         <v>1.825042724609375</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209">
-        <v>1</v>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>45207</v>
       </c>
       <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
         <v>2.063690423965454</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210">
-        <v>2</v>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>45209</v>
       </c>
       <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
         <v>1.380024790763855</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211">
-        <v>2</v>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>45210</v>
       </c>
       <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="C211">
         <v>2.273343801498413</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212">
-        <v>1</v>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>45211</v>
       </c>
       <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
         <v>2.682457685470581</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213">
-        <v>4</v>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>45212</v>
       </c>
       <c r="B213">
+        <v>4</v>
+      </c>
+      <c r="C213">
         <v>3.005042791366577</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214">
-        <v>3</v>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>45213</v>
       </c>
       <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214">
         <v>2.836339473724365</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215">
-        <v>3</v>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>45214</v>
       </c>
       <c r="B215">
+        <v>3</v>
+      </c>
+      <c r="C215">
         <v>2.300448656082153</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216">
-        <v>2</v>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>45215</v>
       </c>
       <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
         <v>3.182295799255371</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
-      <c r="A217">
-        <v>3</v>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>45216</v>
       </c>
       <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217">
         <v>3.154871463775635</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218">
-        <v>1</v>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>45217</v>
       </c>
       <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
         <v>1.800370573997498</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219">
-        <v>3</v>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>45218</v>
       </c>
       <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219">
         <v>1.872965097427368</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220">
-        <v>3</v>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>45219</v>
       </c>
       <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220">
         <v>2.826769828796387</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221">
-        <v>1</v>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>45220</v>
       </c>
       <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
         <v>2.223714113235474</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222">
-        <v>3</v>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>45221</v>
       </c>
       <c r="B222">
+        <v>3</v>
+      </c>
+      <c r="C222">
         <v>2.464640378952026</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223">
-        <v>2</v>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>45222</v>
       </c>
       <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223">
         <v>2.070284128189087</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224">
-        <v>2</v>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
+        <v>45223</v>
       </c>
       <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="C224">
         <v>1.92428183555603</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225">
-        <v>1</v>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
+        <v>45224</v>
       </c>
       <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
         <v>2.204322814941406</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226">
-        <v>1</v>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>45227</v>
       </c>
       <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
         <v>1.935967206954956</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
-      <c r="A227">
-        <v>3</v>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>45228</v>
       </c>
       <c r="B227">
+        <v>3</v>
+      </c>
+      <c r="C227">
         <v>2.81113862991333</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228">
-        <v>2</v>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
+        <v>45229</v>
       </c>
       <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228">
         <v>1.485511779785156</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229">
-        <v>4</v>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
+        <v>45235</v>
       </c>
       <c r="B229">
+        <v>4</v>
+      </c>
+      <c r="C229">
         <v>2.789136409759521</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230">
-        <v>1</v>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
+        <v>45237</v>
       </c>
       <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
         <v>3.234822511672974</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231">
-        <v>3</v>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
+        <v>45238</v>
       </c>
       <c r="B231">
+        <v>3</v>
+      </c>
+      <c r="C231">
         <v>2.483743667602539</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232">
-        <v>2</v>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
+        <v>45239</v>
       </c>
       <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232">
         <v>2.491388082504272</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233">
-        <v>3</v>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
+        <v>45240</v>
       </c>
       <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233">
         <v>2.110251188278198</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234">
-        <v>2</v>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
+        <v>45245</v>
       </c>
       <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234">
         <v>2.207212686538696</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235">
-        <v>1</v>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
+        <v>45247</v>
       </c>
       <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
         <v>2.145646810531616</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236">
-        <v>2</v>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
+        <v>45249</v>
       </c>
       <c r="B236">
+        <v>2</v>
+      </c>
+      <c r="C236">
         <v>2.145033359527588</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
-      <c r="A237">
-        <v>2</v>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
+        <v>45250</v>
       </c>
       <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237">
         <v>1.817177653312683</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238">
-        <v>2</v>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
+        <v>45251</v>
       </c>
       <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
         <v>1.109017372131348</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239">
-        <v>2</v>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
+        <v>45252</v>
       </c>
       <c r="B239">
+        <v>2</v>
+      </c>
+      <c r="C239">
         <v>2.047885894775391</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240">
-        <v>3</v>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>45253</v>
       </c>
       <c r="B240">
+        <v>3</v>
+      </c>
+      <c r="C240">
         <v>2.399154424667358</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241">
-        <v>1</v>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
+        <v>45254</v>
       </c>
       <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
         <v>1.570356726646423</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
-      <c r="A242">
-        <v>2</v>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
+        <v>45255</v>
       </c>
       <c r="B242">
+        <v>2</v>
+      </c>
+      <c r="C242">
         <v>2.653416872024536</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243">
-        <v>2</v>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>45256</v>
       </c>
       <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="C243">
         <v>2.368405103683472</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244">
-        <v>3</v>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
+        <v>45258</v>
       </c>
       <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244">
         <v>1.531867623329163</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245">
-        <v>4</v>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>45259</v>
       </c>
       <c r="B245">
+        <v>4</v>
+      </c>
+      <c r="C245">
         <v>1.883961200714111</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246">
-        <v>1</v>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>45261</v>
       </c>
       <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
         <v>2.38358998298645</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247">
-        <v>1</v>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>45262</v>
       </c>
       <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
         <v>2.466245174407959</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248">
-        <v>1</v>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>45263</v>
       </c>
       <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
         <v>1.621729731559753</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249">
-        <v>1</v>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
+        <v>45264</v>
       </c>
       <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
         <v>1.533654808998108</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
-      <c r="A250">
-        <v>4</v>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
+        <v>45265</v>
       </c>
       <c r="B250">
+        <v>4</v>
+      </c>
+      <c r="C250">
         <v>1.648909330368042</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
-      <c r="A251">
-        <v>2</v>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2">
+        <v>45266</v>
       </c>
       <c r="B251">
+        <v>2</v>
+      </c>
+      <c r="C251">
         <v>1.84848952293396</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
-      <c r="A252">
-        <v>1</v>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
+        <v>45269</v>
       </c>
       <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
         <v>2.393329620361328</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
-      <c r="A253">
-        <v>4</v>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
+        <v>45271</v>
       </c>
       <c r="B253">
+        <v>4</v>
+      </c>
+      <c r="C253">
         <v>2.452341079711914</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
-      <c r="A254">
-        <v>2</v>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
+        <v>45272</v>
       </c>
       <c r="B254">
+        <v>2</v>
+      </c>
+      <c r="C254">
         <v>1.540701985359192</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
-      <c r="A255">
-        <v>3</v>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2">
+        <v>45274</v>
       </c>
       <c r="B255">
+        <v>3</v>
+      </c>
+      <c r="C255">
         <v>2.292842626571655</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
-      <c r="A256">
-        <v>2</v>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
+        <v>45276</v>
       </c>
       <c r="B256">
+        <v>2</v>
+      </c>
+      <c r="C256">
         <v>2.062748193740845</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257">
-        <v>1</v>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2">
+        <v>45277</v>
       </c>
       <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
         <v>2.848459005355835</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
-      <c r="A258">
-        <v>4</v>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2">
+        <v>45279</v>
       </c>
       <c r="B258">
+        <v>4</v>
+      </c>
+      <c r="C258">
         <v>2.651960372924805</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
-      <c r="A259">
-        <v>3</v>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2">
+        <v>45280</v>
       </c>
       <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259">
         <v>2.528815746307373</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
-      <c r="A260">
-        <v>3</v>
+    <row r="260" spans="1:3">
+      <c r="A260" s="2">
+        <v>45281</v>
       </c>
       <c r="B260">
+        <v>3</v>
+      </c>
+      <c r="C260">
         <v>2.667601346969604</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261">
-        <v>3</v>
+    <row r="261" spans="1:3">
+      <c r="A261" s="2">
+        <v>45282</v>
       </c>
       <c r="B261">
+        <v>3</v>
+      </c>
+      <c r="C261">
         <v>3.492980480194092</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
-      <c r="A262">
-        <v>2</v>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2">
+        <v>45283</v>
       </c>
       <c r="B262">
+        <v>2</v>
+      </c>
+      <c r="C262">
         <v>2.443930387496948</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
-      <c r="A263">
-        <v>3</v>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2">
+        <v>45284</v>
       </c>
       <c r="B263">
+        <v>3</v>
+      </c>
+      <c r="C263">
         <v>2.600202322006226</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
-      <c r="A264">
-        <v>2</v>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
+        <v>45287</v>
       </c>
       <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="C264">
         <v>1.461437821388245</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
-      <c r="A265">
-        <v>2</v>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2">
+        <v>45293</v>
       </c>
       <c r="B265">
+        <v>2</v>
+      </c>
+      <c r="C265">
         <v>3.050626754760742</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
-      <c r="A266">
-        <v>2</v>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2">
+        <v>45294</v>
       </c>
       <c r="B266">
+        <v>2</v>
+      </c>
+      <c r="C266">
         <v>1.543131828308105</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
-      <c r="A267">
-        <v>2</v>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2">
+        <v>45295</v>
       </c>
       <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267">
         <v>1.991665363311768</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268">
-        <v>2</v>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2">
+        <v>45296</v>
       </c>
       <c r="B268">
+        <v>2</v>
+      </c>
+      <c r="C268">
         <v>2.004658937454224</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
-      <c r="A269">
-        <v>1</v>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
+        <v>45297</v>
       </c>
       <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
         <v>2.738008737564087</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
-      <c r="A270">
-        <v>2</v>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2">
+        <v>45298</v>
       </c>
       <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270">
         <v>2.970563173294067</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
-      <c r="A271">
-        <v>2</v>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2">
+        <v>45301</v>
       </c>
       <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="C271">
         <v>2.074726819992065</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
-      <c r="A272">
-        <v>1</v>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2">
+        <v>45306</v>
       </c>
       <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
         <v>2.28838586807251</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
-      <c r="A273">
-        <v>2</v>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
+        <v>45308</v>
       </c>
       <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273">
         <v>1.633020639419556</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
-      <c r="A274">
-        <v>1</v>
+    <row r="274" spans="1:3">
+      <c r="A274" s="2">
+        <v>45309</v>
       </c>
       <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
         <v>2.372195243835449</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
-      <c r="A275">
-        <v>4</v>
+    <row r="275" spans="1:3">
+      <c r="A275" s="2">
+        <v>45310</v>
       </c>
       <c r="B275">
+        <v>4</v>
+      </c>
+      <c r="C275">
         <v>3.467181205749512</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="A276">
-        <v>2</v>
+    <row r="276" spans="1:3">
+      <c r="A276" s="2">
+        <v>45311</v>
       </c>
       <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276">
         <v>2.291565418243408</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
-      <c r="A277">
-        <v>4</v>
+    <row r="277" spans="1:3">
+      <c r="A277" s="2">
+        <v>45313</v>
       </c>
       <c r="B277">
+        <v>4</v>
+      </c>
+      <c r="C277">
         <v>2.748584747314453</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
-      <c r="A278">
-        <v>4</v>
+    <row r="278" spans="1:3">
+      <c r="A278" s="2">
+        <v>45314</v>
       </c>
       <c r="B278">
+        <v>4</v>
+      </c>
+      <c r="C278">
         <v>1.127476572990417</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
-      <c r="A279">
-        <v>1</v>
+    <row r="279" spans="1:3">
+      <c r="A279" s="2">
+        <v>45315</v>
       </c>
       <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
         <v>1.638142824172974</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
-      <c r="A280">
-        <v>3</v>
+    <row r="280" spans="1:3">
+      <c r="A280" s="2">
+        <v>45319</v>
       </c>
       <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280">
         <v>1.838868021965027</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
-      <c r="A281">
-        <v>2</v>
+    <row r="281" spans="1:3">
+      <c r="A281" s="2">
+        <v>45320</v>
       </c>
       <c r="B281">
+        <v>2</v>
+      </c>
+      <c r="C281">
         <v>2.936296939849854</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
-      <c r="A282">
-        <v>1</v>
+    <row r="282" spans="1:3">
+      <c r="A282" s="2">
+        <v>45321</v>
       </c>
       <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
         <v>1.762983202934265</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
-      <c r="A283">
-        <v>2</v>
+    <row r="283" spans="1:3">
+      <c r="A283" s="2">
+        <v>45323</v>
       </c>
       <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="C283">
         <v>3.154672145843506</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
-      <c r="A284">
-        <v>3</v>
+    <row r="284" spans="1:3">
+      <c r="A284" s="2">
+        <v>45324</v>
       </c>
       <c r="B284">
+        <v>3</v>
+      </c>
+      <c r="C284">
         <v>2.194962024688721</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
-      <c r="A285">
-        <v>3</v>
+    <row r="285" spans="1:3">
+      <c r="A285" s="2">
+        <v>45325</v>
       </c>
       <c r="B285">
+        <v>3</v>
+      </c>
+      <c r="C285">
         <v>1.62482213973999</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
-      <c r="A286">
-        <v>3</v>
+    <row r="286" spans="1:3">
+      <c r="A286" s="2">
+        <v>45327</v>
       </c>
       <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286">
         <v>2.73646354675293</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
-      <c r="A287">
-        <v>4</v>
+    <row r="287" spans="1:3">
+      <c r="A287" s="2">
+        <v>45328</v>
       </c>
       <c r="B287">
+        <v>4</v>
+      </c>
+      <c r="C287">
         <v>3.47753119468689</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
-      <c r="A288">
-        <v>3</v>
+    <row r="288" spans="1:3">
+      <c r="A288" s="2">
+        <v>45329</v>
       </c>
       <c r="B288">
+        <v>3</v>
+      </c>
+      <c r="C288">
         <v>2.492454528808594</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
-      <c r="A289">
-        <v>4</v>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2">
+        <v>45330</v>
       </c>
       <c r="B289">
+        <v>4</v>
+      </c>
+      <c r="C289">
         <v>3.108609199523926</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
-      <c r="A290">
-        <v>2</v>
+    <row r="290" spans="1:3">
+      <c r="A290" s="2">
+        <v>45331</v>
       </c>
       <c r="B290">
+        <v>2</v>
+      </c>
+      <c r="C290">
         <v>1.244416117668152</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
-      <c r="A291">
-        <v>1</v>
+    <row r="291" spans="1:3">
+      <c r="A291" s="2">
+        <v>45332</v>
       </c>
       <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291">
         <v>1.660469651222229</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
-      <c r="A292">
-        <v>4</v>
+    <row r="292" spans="1:3">
+      <c r="A292" s="2">
+        <v>45333</v>
       </c>
       <c r="B292">
+        <v>4</v>
+      </c>
+      <c r="C292">
         <v>1.687761306762695</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
-      <c r="A293">
-        <v>3</v>
+    <row r="293" spans="1:3">
+      <c r="A293" s="2">
+        <v>45334</v>
       </c>
       <c r="B293">
+        <v>3</v>
+      </c>
+      <c r="C293">
         <v>1.661634683609009</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
-      <c r="A294">
-        <v>1</v>
+    <row r="294" spans="1:3">
+      <c r="A294" s="2">
+        <v>45335</v>
       </c>
       <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
         <v>1.796931266784668</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
-      <c r="A295">
-        <v>3</v>
+    <row r="295" spans="1:3">
+      <c r="A295" s="2">
+        <v>45336</v>
       </c>
       <c r="B295">
+        <v>3</v>
+      </c>
+      <c r="C295">
         <v>3.686618089675903</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
-      <c r="A296">
-        <v>1</v>
+    <row r="296" spans="1:3">
+      <c r="A296" s="2">
+        <v>45337</v>
       </c>
       <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
         <v>3.012566089630127</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
-      <c r="A297">
-        <v>3</v>
+    <row r="297" spans="1:3">
+      <c r="A297" s="2">
+        <v>45339</v>
       </c>
       <c r="B297">
+        <v>3</v>
+      </c>
+      <c r="C297">
         <v>2.782881736755371</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
-      <c r="A298">
-        <v>4</v>
+    <row r="298" spans="1:3">
+      <c r="A298" s="2">
+        <v>45341</v>
       </c>
       <c r="B298">
+        <v>4</v>
+      </c>
+      <c r="C298">
         <v>2.187142610549927</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
-      <c r="A299">
-        <v>3</v>
+    <row r="299" spans="1:3">
+      <c r="A299" s="2">
+        <v>45343</v>
       </c>
       <c r="B299">
+        <v>3</v>
+      </c>
+      <c r="C299">
         <v>1.179322123527527</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
-      <c r="A300">
-        <v>4</v>
+    <row r="300" spans="1:3">
+      <c r="A300" s="2">
+        <v>45344</v>
       </c>
       <c r="B300">
+        <v>4</v>
+      </c>
+      <c r="C300">
         <v>3.624269247055054</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
-      <c r="A301">
-        <v>4</v>
+    <row r="301" spans="1:3">
+      <c r="A301" s="2">
+        <v>45345</v>
       </c>
       <c r="B301">
+        <v>4</v>
+      </c>
+      <c r="C301">
         <v>0.7212720513343811</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
-      <c r="A302">
-        <v>2</v>
+    <row r="302" spans="1:3">
+      <c r="A302" s="2">
+        <v>45346</v>
       </c>
       <c r="B302">
+        <v>2</v>
+      </c>
+      <c r="C302">
         <v>2.854224920272827</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
-      <c r="A303">
-        <v>3</v>
+    <row r="303" spans="1:3">
+      <c r="A303" s="2">
+        <v>45347</v>
       </c>
       <c r="B303">
+        <v>3</v>
+      </c>
+      <c r="C303">
         <v>2.370428085327148</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
-      <c r="A304">
-        <v>2</v>
+    <row r="304" spans="1:3">
+      <c r="A304" s="2">
+        <v>45348</v>
       </c>
       <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304">
         <v>2.602231740951538</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
-      <c r="A305">
-        <v>2</v>
+    <row r="305" spans="1:3">
+      <c r="A305" s="2">
+        <v>45349</v>
       </c>
       <c r="B305">
+        <v>2</v>
+      </c>
+      <c r="C305">
         <v>2.113515138626099</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
-      <c r="A306">
-        <v>2</v>
+    <row r="306" spans="1:3">
+      <c r="A306" s="2">
+        <v>45350</v>
       </c>
       <c r="B306">
+        <v>2</v>
+      </c>
+      <c r="C306">
         <v>2.565206050872803</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
-      <c r="A307">
-        <v>2</v>
+    <row r="307" spans="1:3">
+      <c r="A307" s="2">
+        <v>45352</v>
       </c>
       <c r="B307">
+        <v>2</v>
+      </c>
+      <c r="C307">
         <v>2.079671382904053</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
-      <c r="A308">
-        <v>1</v>
+    <row r="308" spans="1:3">
+      <c r="A308" s="2">
+        <v>45353</v>
       </c>
       <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
         <v>3.490005970001221</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
-      <c r="A309">
-        <v>3</v>
+    <row r="309" spans="1:3">
+      <c r="A309" s="2">
+        <v>45354</v>
       </c>
       <c r="B309">
+        <v>3</v>
+      </c>
+      <c r="C309">
         <v>3.782946109771729</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
-      <c r="A310">
-        <v>1</v>
+    <row r="310" spans="1:3">
+      <c r="A310" s="2">
+        <v>45355</v>
       </c>
       <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
         <v>2.29542875289917</v>
       </c>
     </row>
